--- a/utils/Tools/excel/11_bag_背包.xlsx
+++ b/utils/Tools/excel/11_bag_背包.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22335" windowHeight="8730"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>道具id</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>分解获得</t>
-  </si>
-  <si>
-    <t>道具说明</t>
-  </si>
-  <si>
-    <t>0无1白2蓝3紫4橙5红</t>
   </si>
   <si>
     <t>id</t>
@@ -1389,15 +1383,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -1408,7 +1402,7 @@
     <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,123 +1427,116 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1562,17 +1549,16 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1585,17 +1571,16 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1608,17 +1593,16 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1631,59 +1615,60 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1701,25 +1686,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>1002</v>
+        <v>110001</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
@@ -1730,20 +1714,17 @@
       <c r="G13" s="2">
         <v>1000</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>110001</v>
+        <v>110002</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -1758,17 +1739,16 @@
         <v>1000</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>110002</v>
+        <v>110003</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -1783,42 +1763,40 @@
         <v>1000</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>110003</v>
+        <v>1401001</v>
       </c>
       <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>1401001</v>
+        <v>1401002</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -1833,17 +1811,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>1401002</v>
+        <v>1401003</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -1858,17 +1835,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>1401003</v>
+        <v>1401004</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1883,17 +1859,16 @@
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>1401004</v>
+        <v>1401005</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -1908,17 +1883,16 @@
         <v>1</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>1401005</v>
+        <v>1401006</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -1933,59 +1907,32 @@
         <v>1</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>1401006</v>
+        <v>1800001</v>
       </c>
       <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2">
-        <v>1800001</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
